--- a/Original/CN/Dialog/Drama/quru.xlsx
+++ b/Original/CN/Dialog/Drama/quru.xlsx
@@ -852,12 +852,12 @@
     <t xml:space="preserve">流放者是触及世界的禁忌，为了偿还自己的罪孽被神使役的可怜之人。而他，甚至被自己侍奉的神所抛弃。</t>
   </si>
   <si>
-    <t xml:space="preserve">…汝还是一点没变。吾确实失去了自己目的和存在的意义，只是四处徘徊而已。
+    <t xml:space="preserve">…汝还是一点没变。吾确实失去了自己的目的和存在的意义，只是四处徘徊而已。
 然而，呵呵……汝又是否找到那所谓的意义与目标呢？看来吾还太年轻，不足以理解那永恒的痛苦啊，「凯特尔」。</t>
   </si>
   <si>
     <t xml:space="preserve">我只是个随风漂泊的流浪炼金术师。可能会在旅途中找到自己的意义，也可能不会。
-迪米塔斯，能问你造访这里的意图吗？</t>
+迪米塔斯，能问问你造访这里的意图吗？</t>
   </si>
   <si>
     <t xml:space="preserve">…有只自古潜藏在此的恶魔消失了。其名为特菲拉。

--- a/Original/CN/Dialog/Drama/quru.xlsx
+++ b/Original/CN/Dialog/Drama/quru.xlsx
@@ -743,7 +743,7 @@
     <t xml:space="preserve">（嘎）</t>
   </si>
   <si>
-    <t xml:space="preserve">库罗茨亚，那首歌……是法莉斯教给你的么？</t>
+    <t xml:space="preserve">库罗茨亚，那首歌……是法莉斯小姐教给你的么？</t>
   </si>
   <si>
     <t xml:space="preserve">哼哼哼♪梦幻的～♪</t>

--- a/Original/CN/Dialog/Drama/quru.xlsx
+++ b/Original/CN/Dialog/Drama/quru.xlsx
@@ -743,7 +743,7 @@
     <t xml:space="preserve">（嘎）</t>
   </si>
   <si>
-    <t xml:space="preserve">库罗茨亚，那首歌……是法莉斯小姐教给你的么？</t>
+    <t xml:space="preserve">库罗茨亚，那首歌……是法莉斯教给你的么？</t>
   </si>
   <si>
     <t xml:space="preserve">哼哼哼♪梦幻的～♪</t>
